--- a/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY_2024!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY_2024!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>09:00 AM To 12:00 PM</t>
-  </si>
-  <si>
-    <t>21ME21</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,10 +703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -964,11 +961,11 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
-        <f t="shared" ref="G15:G25" si="0">SUM(D15:F15)</f>
+        <f t="shared" ref="G15:G24" si="0">SUM(D15:F15)</f>
         <v>0</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" ref="H15:H25" si="1">(G15/3)*100</f>
+        <f t="shared" ref="H15:H24" si="1">(G15/3)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1157,64 +1154,42 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="11">
-        <v>12</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11">
-        <v>3</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C26" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="18" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="MAY_2024" sheetId="6" r:id="rId1"/>
+    <sheet name="JULY_2024" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY_2024!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">JULY_2024!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -401,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,8 +705,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPS\OneDrive - BUET Khuzdar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="JULY_2024" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">JULY_2024!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -401,7 +401,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,24 +705,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.8984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.09765625" style="4"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -735,7 +735,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="24" t="s">
@@ -745,7 +745,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
@@ -767,7 +767,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
@@ -789,7 +789,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
@@ -801,7 +801,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
@@ -817,7 +817,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
         <v>8</v>
@@ -831,7 +831,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
@@ -847,7 +847,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -855,7 +855,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
@@ -868,7 +868,9 @@
       <c r="D10" s="19">
         <v>7</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>14</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="22" t="s">
         <v>9</v>
@@ -877,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
@@ -895,7 +897,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
@@ -904,16 +906,18 @@
       <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
@@ -925,7 +929,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -936,18 +940,20 @@
       <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
         <f>SUM(D14:F14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="14">
-        <f>(G14/3)*100</f>
+        <f>(G14/6)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>2</v>
       </c>
@@ -958,18 +964,20 @@
       <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
         <f t="shared" ref="G15:G24" si="0">SUM(D15:F15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" ref="H15:H24" si="1">(G15/3)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" ref="H15:H24" si="1">(G15/6)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>3</v>
       </c>
@@ -980,7 +988,9 @@
       <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
@@ -988,10 +998,10 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -1002,18 +1012,20 @@
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>5</v>
       </c>
@@ -1024,18 +1036,20 @@
       <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>6</v>
       </c>
@@ -1046,18 +1060,20 @@
       <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>7</v>
       </c>
@@ -1068,18 +1084,20 @@
       <c r="D20" s="11">
         <v>3</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>8</v>
       </c>
@@ -1090,18 +1108,20 @@
       <c r="D21" s="11">
         <v>3</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>9</v>
       </c>
@@ -1112,18 +1132,20 @@
       <c r="D22" s="11">
         <v>0</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>10</v>
       </c>
@@ -1134,7 +1156,9 @@
       <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
@@ -1145,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -1156,18 +1180,20 @@
       <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>14</v>
       </c>
@@ -1177,15 +1203,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1224,7 +1250,7 @@
       <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_JULY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPS\OneDrive - BUET Khuzdar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerSystemProtection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="JULY_2024" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">JULY_2024!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">JULY_2024!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>22ME03</t>
-  </si>
-  <si>
-    <t>21ME19</t>
   </si>
   <si>
     <t>21ME20</t>
@@ -285,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,9 +299,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -333,12 +327,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,10 +706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,7 +718,7 @@
     <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
@@ -724,26 +727,26 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -751,21 +754,21 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -773,21 +776,21 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -795,11 +798,11 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -807,29 +810,29 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -837,15 +840,15 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -856,369 +859,352 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="19">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9">
-        <v>3</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="19">
         <v>6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <f>SUM(D14:F14)</f>
         <v>6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f>(G14/6)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <f t="shared" ref="G15:G24" si="0">SUM(D15:F15)</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" ref="H15:H24" si="1">(G15/6)*100</f>
-        <v>50</v>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15:G23" si="0">SUM(D15:F15)</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" ref="H15:H23" si="1">(G15/6)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>3</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>4</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>5</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>6</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11">
-        <v>3</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>7</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
-        <v>3</v>
-      </c>
-      <c r="E20" s="11">
-        <v>3</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H19" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>8</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H20" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>9</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>10</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>11</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11">
-        <v>3</v>
-      </c>
-      <c r="E24" s="11">
-        <v>3</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+    <row r="21" spans="1:9" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>8</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H21" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>11</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C24:I24"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A13"/>
